--- a/BAP Project.xlsx
+++ b/BAP Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerltarachandani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankerltarachandani/Desktop/bapProject/BAPProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671952B2-22DD-9947-9073-60D1C5B33405}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EAA640-2AB2-044B-81CD-B96716232AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="735" xr2:uid="{9F8EC198-9BAC-4F69-9CC7-EA2F0CFF02F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" tabRatio="735" xr2:uid="{9F8EC198-9BAC-4F69-9CC7-EA2F0CFF02F0}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE" sheetId="1" r:id="rId1"/>
@@ -26,32 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
-  <si>
-    <t>Course Outcome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Q.No</t>
   </si>
   <si>
-    <t>1(A)</t>
-  </si>
-  <si>
-    <t>2(A)</t>
-  </si>
-  <si>
-    <t>1(B)</t>
-  </si>
-  <si>
-    <t>2(B)</t>
-  </si>
-  <si>
-    <t>3(A)</t>
-  </si>
-  <si>
-    <t>3(B)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -73,25 +52,43 @@
     <t>`</t>
   </si>
   <si>
-    <t>CS A</t>
-  </si>
-  <si>
-    <t>CS B</t>
-  </si>
-  <si>
-    <t>CSE AIML</t>
-  </si>
-  <si>
-    <t>Average Scores</t>
-  </si>
-  <si>
-    <t>Max Scores</t>
-  </si>
-  <si>
-    <t>Min Scores</t>
-  </si>
-  <si>
-    <t>Median</t>
+    <t>Avg CSA</t>
+  </si>
+  <si>
+    <t>Avg CS B</t>
+  </si>
+  <si>
+    <t>Avg CSEAIML</t>
+  </si>
+  <si>
+    <t>MaxCSA</t>
+  </si>
+  <si>
+    <t>MaxCSB</t>
+  </si>
+  <si>
+    <t>MaxCSEAIML</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>OverallAvg</t>
   </si>
 </sst>
 </file>
@@ -459,381 +456,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54012B3A-00FC-4B2A-AEFB-224FDF20A812}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="17.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(F2:H2)/3</f>
+        <v>0.42</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I9" si="0">SUM(F3:H3)/3</f>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4466666666666665</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8266666666666669</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.72</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="G9" s="2">
-        <v>2.0699999999999998</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H9" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
+        <v>1.82</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2133333333333334</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
@@ -842,71 +819,18 @@
         <v>4</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2">
-        <v>4</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>14</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -928,21 +852,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE1BC7DE3938234986CA148B46A621B6" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090b424c9dd6424faa5b65c2d02db91d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8a064273-744e-486f-b878-261bf83db957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47786f3a9c599ef71b237a3cb1c563d2" ns3:_="">
     <xsd:import namespace="8a064273-744e-486f-b878-261bf83db957"/>
@@ -1100,31 +1009,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADEB6EAC-3765-4BD4-8235-5788FAD81A38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a064273-744e-486f-b878-261bf83db957"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7EBFA85-C60A-4893-B1AC-2A3D21CA195C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD66156B-2710-487A-9996-13AFBE0D2FC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1140,4 +1040,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7EBFA85-C60A-4893-B1AC-2A3D21CA195C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADEB6EAC-3765-4BD4-8235-5788FAD81A38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a064273-744e-486f-b878-261bf83db957"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>